--- a/ReligionData/US_Religion_Data.xlsx
+++ b/ReligionData/US_Religion_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\Downloads\Github Repo\CSC3007-project\ReligionData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC1459-E642-4CA1-B56A-5EC27D2448C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,197 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Very important</t>
+  </si>
+  <si>
+    <t>Somewhat important</t>
+  </si>
+  <si>
+    <t>Not too important</t>
+  </si>
+  <si>
+    <t>Not at all important</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +238,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +541,1221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3">
+        <v>53</v>
+      </c>
+      <c r="C11" s="3">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25</v>
+      </c>
+      <c r="D14" s="3">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3">
+        <v>14</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
+        <v>16</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3">
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>23</v>
+      </c>
+      <c r="E31" s="3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>9</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3">
+        <v>27</v>
+      </c>
+      <c r="D34" s="3">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3">
+        <v>22</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3">
+        <v>15</v>
+      </c>
+      <c r="E36" s="3">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3">
+        <v>25</v>
+      </c>
+      <c r="D37" s="3">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3">
+        <v>12</v>
+      </c>
+      <c r="E39" s="3">
+        <v>17</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3">
+        <v>26</v>
+      </c>
+      <c r="D40" s="3">
+        <v>12</v>
+      </c>
+      <c r="E40" s="3">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3">
+        <v>10</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3">
+        <v>57</v>
+      </c>
+      <c r="C43" s="3">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3">
+        <v>9</v>
+      </c>
+      <c r="E43" s="3">
+        <v>9</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3">
+        <v>15</v>
+      </c>
+      <c r="D46" s="3">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3">
+        <v>32</v>
+      </c>
+      <c r="C47" s="3">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3">
+        <v>21</v>
+      </c>
+      <c r="E47" s="3">
+        <v>22</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="3">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3">
+        <v>21</v>
+      </c>
+      <c r="D48" s="3">
+        <v>10</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3">
+        <v>23</v>
+      </c>
+      <c r="D49" s="3">
+        <v>17</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3">
+        <v>22</v>
+      </c>
+      <c r="D50" s="3">
+        <v>7</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44</v>
+      </c>
+      <c r="C51" s="3">
+        <v>31</v>
+      </c>
+      <c r="D51" s="3">
+        <v>12</v>
+      </c>
+      <c r="E51" s="3">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="3">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3">
+        <v>28</v>
+      </c>
+      <c r="D52" s="3">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>